--- a/data/demographic_info4share.xlsx
+++ b/data/demographic_info4share.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b442eee93064521/Documents/Suzhou_Rumination/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chenxiao/Documents/project_codes/rum_network_stable/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{687AF7B1-657D-3145-986D-37CB80CB0E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4F377B3-4AEC-8A45-9035-016AAE9AE850}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC2CCC1-F8D0-6345-89B1-91E25968512A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="700" windowWidth="30640" windowHeight="19280" xr2:uid="{7F01F24F-9CF0-9D4A-B455-AAACE7079483}"/>
+    <workbookView xWindow="-200" yWindow="540" windowWidth="30640" windowHeight="19280" xr2:uid="{7F01F24F-9CF0-9D4A-B455-AAACE7079483}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1163,9 +1163,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A2F32C-E2BB-4F48-8DE1-07C9A6623721}">
   <dimension ref="A1:CU121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BM14" sqref="BM14"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
